--- a/A1.xlsx
+++ b/A1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didur\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5CBD6C0-D3FC-463A-8A9A-8B761FE534F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FFC43A-AA09-42A9-951F-21B29232F47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A20562FB-583F-4EE7-A07A-2CF5D1E79F10}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="3" activeTab="6" xr2:uid="{A20562FB-583F-4EE7-A07A-2CF5D1E79F10}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,19 @@
     <sheet name="Задание 5" sheetId="5" r:id="rId5"/>
     <sheet name="Задание 6" sheetId="6" r:id="rId6"/>
     <sheet name="Лист7" sheetId="7" r:id="rId7"/>
+    <sheet name="Лист8 " sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="108">
   <si>
     <t>№</t>
   </si>
@@ -281,6 +272,90 @@
   </si>
   <si>
     <t>Перевод в следующий класс</t>
+  </si>
+  <si>
+    <t>д</t>
+  </si>
+  <si>
+    <t>и</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>е</t>
+  </si>
+  <si>
+    <t>т</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>о</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>п</t>
+  </si>
+  <si>
+    <t>ь</t>
+  </si>
+  <si>
+    <t>ю</t>
+  </si>
+  <si>
+    <t>р</t>
+  </si>
+  <si>
+    <t>н</t>
+  </si>
+  <si>
+    <t>ц</t>
+  </si>
+  <si>
+    <t>ы</t>
+  </si>
+  <si>
+    <t>ш</t>
+  </si>
+  <si>
+    <t>ПО</t>
+  </si>
+  <si>
+    <t>ГОРИЗОНТАЛИ</t>
+  </si>
+  <si>
+    <t>Гибкий магнийтный диск</t>
+  </si>
+  <si>
+    <t>Устройство вывода информации</t>
+  </si>
+  <si>
+    <t>Жесткий магнитный…</t>
+  </si>
+  <si>
+    <t>Устройство для вывода информации на бумажный носитель</t>
+  </si>
+  <si>
+    <t>ПО ВЕРТИКАЛИ</t>
+  </si>
+  <si>
+    <t>Вычислительная система</t>
+  </si>
+  <si>
+    <t>Устройство, преобразующее информацию и управляющее другими устройствами компьютера</t>
+  </si>
+  <si>
+    <t>Кроссворд "Компьютер"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общее число набранных баллов = </t>
   </si>
 </sst>
 </file>
@@ -290,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,8 +408,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +436,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -377,12 +466,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -431,6 +581,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -1453,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21211B9C-1497-467A-BE85-7494441E464F}">
   <dimension ref="C2:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -2168,14 +2329,598 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB3688-B1AB-4820-A996-3F0EF1BF8FD7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="12" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="J3" s="21">
+        <v>2</v>
+      </c>
+      <c r="L3" s="21">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="21">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="21">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="21">
+        <v>4</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="21">
+        <v>6</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="21">
+        <v>6</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="21">
+        <v>1</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="21">
+        <v>2</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="21">
+        <v>7</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="21"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f>IF('Лист8 '!L14&gt;=40,"Молодец","Попробуй еще")</f>
+        <v>Молодец</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2FD1C-709D-4AB0-B594-948633113CCC}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="3.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="30">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="30">
+        <v>2</v>
+      </c>
+      <c r="L3" s="17"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="30">
+        <v>3</v>
+      </c>
+      <c r="C4" s="24">
+        <f>IF(Лист7!B4="д",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <f>IF(Лист7!C4="и",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <f>IF(Лист7!D4="с",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <f>IF(Лист7!E4="к",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="24">
+        <f>IF(Лист7!F4="е",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="24">
+        <f>IF(Лист7!G4="т",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="24">
+        <f>IF(Лист7!H4="а",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="24">
+        <f>IF(Лист7!J4="п",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="24">
+        <f>IF(Лист7!E5="о",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="24">
+        <f>IF(Лист7!J5="р",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="30">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24">
+        <f>IF(Лист7!E6="м",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="24">
+        <f>IF(Лист7!F6="о",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="24">
+        <f>IF(Лист7!G6="н",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="24">
+        <f>IF(Лист7!H6="и",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="24">
+        <f>IF(Лист7!I6="т",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="24">
+        <f>IF(Лист7!J6="о",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="24">
+        <f>IF(Лист7!K6="р",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="24">
+        <f>IF(Лист7!E7="п",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="24">
+        <f>IF(Лист7!J7="ц",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="30">
+        <v>5</v>
+      </c>
+      <c r="C8" s="24">
+        <f>IF(Лист7!B8="м",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="24">
+        <f>IF(Лист7!C8="ы",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="24">
+        <f>IF(Лист7!D8="ш",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <f>IF(Лист7!E8="ь",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="24">
+        <f>IF(Лист7!J8="е",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="24">
+        <f>IF(Лист7!E9="ю",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="30">
+        <v>6</v>
+      </c>
+      <c r="I9" s="24">
+        <f>IF(Лист7!H9="д",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="24">
+        <f>IF(Лист7!I9="и",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="24">
+        <f>IF(Лист7!J9="с",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="24">
+        <f>IF(Лист7!K9="к",1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="24">
+        <f>IF(Лист7!E10="т",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="24">
+        <f>IF(Лист7!J10="с",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="24">
+        <f>IF(Лист7!E11="е",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="24">
+        <f>IF(Лист7!J11="о",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="30">
+        <v>7</v>
+      </c>
+      <c r="E12" s="24">
+        <f>IF(Лист7!D12="п",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="24">
+        <f>IF(Лист7!E12="р",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="24">
+        <f>IF(Лист7!F12="и",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="24">
+        <f>IF(Лист7!G12="н",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="24">
+        <f>IF(Лист7!H12="т",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="24">
+        <f>IF(Лист7!I12="е",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="24">
+        <f>IF(Лист7!J12="р",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29">
+        <f>SUM(C4:L12)</f>
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>